--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Trimestral.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3095,6 +3098,14 @@
         <v>51798.33</v>
       </c>
     </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178">
+        <v>52335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Trimestral.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Trimestral.xlsx
@@ -3102,6 +3102,12 @@
       <c r="A178" t="s">
         <v>180</v>
       </c>
+      <c r="B178">
+        <v>29863.11</v>
+      </c>
+      <c r="C178">
+        <v>31022.51</v>
+      </c>
       <c r="D178">
         <v>52335</v>
       </c>

--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Trimestral.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3112,6 +3115,14 @@
         <v>52335</v>
       </c>
     </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179">
+        <v>53496.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
